--- a/data/차고지.xlsx
+++ b/data/차고지.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\mysite\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373269AE-540C-4773-93FF-568D3A7FC6A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5BC693-A818-4FA1-AFA8-CC2A2BF26886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3870" yWindow="0" windowWidth="6370" windowHeight="7200" xr2:uid="{029FCEE1-4BFC-44C2-830B-D785F0386FEA}"/>
+    <workbookView xWindow="12830" yWindow="200" windowWidth="6370" windowHeight="7200" xr2:uid="{029FCEE1-4BFC-44C2-830B-D785F0386FEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1151,27 +1151,26 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="B17" sqref="B17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="15.58203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="10.25" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.58203125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.58203125" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="8.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="10.58203125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.08203125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="10.33203125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" customWidth="1"/>
+    <col min="4" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="11.58203125" customWidth="1"/>
+    <col min="11" max="11" width="10.58203125" customWidth="1"/>
+    <col min="12" max="13" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="10.58203125" customWidth="1"/>
+    <col min="16" max="16" width="11.08203125" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" customWidth="1"/>
     <col min="20" max="20" width="17.08203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1986,6 +1985,9 @@
       </c>
       <c r="D18">
         <v>7418</v>
+      </c>
+      <c r="E18">
+        <v>7550</v>
       </c>
       <c r="G18" t="s">
         <v>85</v>
